--- a/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
@@ -9,27 +9,17 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
-    <sheet name="汽車" sheetId="4" r:id="rId4"/>
-    <sheet name="航空器" sheetId="5" r:id="rId5"/>
-    <sheet name="現金" sheetId="6" r:id="rId6"/>
-    <sheet name="存款" sheetId="7" r:id="rId7"/>
-    <sheet name="股票" sheetId="8" r:id="rId8"/>
-    <sheet name="債券" sheetId="9" r:id="rId9"/>
-    <sheet name="基金受益憑證" sheetId="10" r:id="rId10"/>
-    <sheet name="其他有價證券" sheetId="11" r:id="rId11"/>
-    <sheet name="具有相當價值之財產" sheetId="12" r:id="rId12"/>
-    <sheet name="保險" sheetId="13" r:id="rId13"/>
-    <sheet name="債權" sheetId="14" r:id="rId14"/>
-    <sheet name="債務" sheetId="15" r:id="rId15"/>
-    <sheet name="事業投資" sheetId="16" r:id="rId16"/>
+    <sheet name="汽車" sheetId="3" r:id="rId3"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="債務" sheetId="5" r:id="rId5"/>
+    <sheet name="事業投資" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
   <si>
     <t>土地坐落</t>
   </si>
@@ -127,27 +117,15 @@
     <t>73年10月 23 U</t>
   </si>
   <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>總嘲數</t>
-  </si>
-  <si>
-    <t>船籍港</t>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
     <t>自用小客車</t>
   </si>
   <si>
@@ -160,39 +138,18 @@
     <t>101 年 02 月13曰</t>
   </si>
   <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
+    <t>存放機構(應敘明分支機構）</t>
+  </si>
+  <si>
+    <t>種類</t>
   </si>
   <si>
     <t>幣別</t>
   </si>
   <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>第一商業銀行土城分行</t>
   </si>
   <si>
@@ -211,103 +168,19 @@
     <t>吳麗香</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>股數</t>
-  </si>
-  <si>
-    <t>票面價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項/件</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
-    <t>保險</t>
-  </si>
-  <si>
-    <t>公</t>
-  </si>
-  <si>
-    <t>司</t>
-  </si>
-  <si>
-    <t>保</t>
-  </si>
-  <si>
-    <t>險</t>
-  </si>
-  <si>
-    <t>要‘</t>
-  </si>
-  <si>
-    <t>備</t>
-  </si>
-  <si>
-    <t>註</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>權</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘</t>
+    <t>債務人</t>
+  </si>
+  <si>
+    <t>債權人及地址</t>
+  </si>
+  <si>
+    <t>餘額</t>
   </si>
   <si>
     <t>取得（發生）時間</t>
   </si>
   <si>
     <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
   </si>
   <si>
     <t>抵押借款</t>
@@ -944,345 +817,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:13">
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>95</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="2">
-        <v>115918</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1750000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>101</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1300000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
@@ -1373,45 +907,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1420,13 +915,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1443,7 +938,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1452,7 +947,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
@@ -1466,7 +961,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
@@ -1475,7 +970,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
@@ -1489,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <v>2494</v>
@@ -1498,13 +993,103 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="2">
         <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2446717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1937829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>347674</v>
       </c>
     </row>
   </sheetData>
@@ -1514,33 +1099,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2">
+        <v>115918</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1550,40 +1155,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1591,160 +1163,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>2446717</v>
+        <v>63</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1750000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>1937829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>347674</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="1" t="s">
+      <c r="E3" s="2">
+        <v>1300000</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
@@ -19,9 +19,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="83">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段05570000地號</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段05580000地號</t>
+  </si>
+  <si>
+    <t>新北市上城區永和段07010000地號</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段07020000地號</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段07160000地號</t>
+  </si>
+  <si>
+    <t>新北市上城區永和段07320000地號</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段07420000地號</t>
+  </si>
+  <si>
+    <t>新北市土城區建安段00020000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>36分之1</t>
+  </si>
+  <si>
+    <t>18分之1</t>
+  </si>
+  <si>
+    <t>6分之1</t>
+  </si>
+  <si>
+    <t>盧嘉辰</t>
+  </si>
+  <si>
+    <t>70年06月10日</t>
+  </si>
+  <si>
+    <t>73年06月15日</t>
+  </si>
+  <si>
+    <t>98年09月07日</t>
+  </si>
+  <si>
+    <t>98年09月07H</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-12</t>
+  </si>
+  <si>
+    <t>tmp79201</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,79 +156,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市土城區永和段0557-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段0558-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市上城區永和段0701 -0000 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段0702-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段0716-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市上城區永和段0732-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段0742-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區建安段0002-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>36分之1</t>
-  </si>
-  <si>
-    <t>18分之1</t>
-  </si>
-  <si>
-    <t>6分之1</t>
-  </si>
-  <si>
-    <t>盧嘉辰</t>
-  </si>
-  <si>
-    <t>70年06月 10日</t>
-  </si>
-  <si>
-    <t>73年06月 15日</t>
-  </si>
-  <si>
-    <t>98年09月 07日</t>
-  </si>
-  <si>
-    <t>98年09月 07 H</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市上城區永和段00006-029 建號</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段00006-030 建號</t>
-  </si>
-  <si>
-    <t>73年10月 23日</t>
-  </si>
-  <si>
-    <t>73年10月 23 U</t>
+    <t>新北市上城區永和段00006029建號</t>
+  </si>
+  <si>
+    <t>新北市土城區永和段00006030建號</t>
+  </si>
+  <si>
+    <t>73年10月23日</t>
+  </si>
+  <si>
+    <t>73年10月23U</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -129,13 +180,13 @@
     <t>自用小客車</t>
   </si>
   <si>
-    <t>87年08月 11 H</t>
-  </si>
-  <si>
-    <t>97年01月 27 R</t>
-  </si>
-  <si>
-    <t>101 年 02 月13曰</t>
+    <t>87年08月11H</t>
+  </si>
+  <si>
+    <t>97年01月27R</t>
+  </si>
+  <si>
+    <t>101年02月13曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -186,10 +237,10 @@
     <t>抵押借款</t>
   </si>
   <si>
-    <t>永豐銀行 臺北市中正區南昌路</t>
-  </si>
-  <si>
-    <t>91年07月 17日</t>
+    <t>永豐銀行臺北市中正區南昌路</t>
+  </si>
+  <si>
+    <t>91年07月17日</t>
   </si>
   <si>
     <t>公司週轉</t>
@@ -213,7 +264,7 @@
     <t>新北市承天路52號</t>
   </si>
   <si>
-    <t>68年02月 07日</t>
+    <t>68年02月07日</t>
   </si>
   <si>
     <t>投資</t>
@@ -575,13 +626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,213 +654,402 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>172.61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>10.49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2">
         <v>1107.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>4626.05</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2">
         <v>681057.36</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>5700.48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2">
         <v>1678474.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>1741</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2">
         <v>1508866.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>48.01</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2">
         <v>41608.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>1302.6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H9" s="2">
         <v>455910</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -827,25 +1067,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -853,25 +1093,25 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>173.13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -879,25 +1119,25 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>48.61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -915,22 +1155,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -938,22 +1178,22 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -961,19 +1201,19 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2">
         <v>1630000</v>
@@ -984,19 +1224,19 @@
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2">
         <v>2494</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2">
         <v>1000000</v>
@@ -1017,19 +1257,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1037,16 +1277,16 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2">
         <v>2446717</v>
@@ -1057,16 +1297,16 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>1937829</v>
@@ -1077,16 +1317,16 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>347674</v>
@@ -1107,22 +1347,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1130,22 +1370,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>115918</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1163,22 +1403,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1186,22 +1426,22 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>1750000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1209,22 +1449,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>1300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市土城區永和段05570000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市土城區永和段05580000地號</t>
@@ -102,9 +105,6 @@
     <t>盧嘉辰</t>
   </si>
   <si>
-    <t>70年06月10日</t>
-  </si>
-  <si>
     <t>73年06月15日</t>
   </si>
   <si>
@@ -135,48 +135,18 @@
     <t>tmp79201</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>新北市上城區永和段00006029建號</t>
   </si>
   <si>
+    <t>73年10月23日</t>
+  </si>
+  <si>
     <t>新北市土城區永和段00006030建號</t>
   </si>
   <si>
-    <t>73年10月23日</t>
-  </si>
-  <si>
     <t>73年10月23U</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>自用小客車</t>
   </si>
   <si>
@@ -189,51 +159,24 @@
     <t>101年02月13曰</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>第一商業銀行土城分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>吳麗香</t>
+  </si>
+  <si>
     <t>上城農會土城分行</t>
   </si>
   <si>
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>吳麗香</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>抵押借款</t>
   </si>
   <si>
@@ -244,18 +187,6 @@
   </si>
   <si>
     <t>公司週轉</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
   </si>
   <si>
     <t>美城有限公司</t>
@@ -626,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,25 +606,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>172.61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>31</v>
@@ -711,7 +648,7 @@
         <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" s="2">
         <v>1715</v>
@@ -720,33 +657,39 @@
         <v>37</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>57</v>
+        <v>10.49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1107.3</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>34</v>
@@ -758,7 +701,7 @@
         <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" s="2">
         <v>1715</v>
@@ -767,33 +710,39 @@
         <v>37</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.291388888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>10.49</v>
+        <v>4626.05</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="2">
-        <v>1107.3</v>
+        <v>681057.36</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>34</v>
@@ -805,7 +754,7 @@
         <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" s="2">
         <v>1715</v>
@@ -814,33 +763,39 @@
         <v>37</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>128.501388888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>4626.05</v>
+        <v>5700.48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="2">
-        <v>681057.36</v>
+        <v>1678474.6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>34</v>
@@ -852,7 +807,7 @@
         <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5" s="2">
         <v>1715</v>
@@ -861,33 +816,39 @@
         <v>37</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>316.693333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>5700.48</v>
+        <v>1741</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="2">
-        <v>1678474.6</v>
+        <v>1508866.6</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>34</v>
@@ -899,7 +860,7 @@
         <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M6" s="2">
         <v>1715</v>
@@ -908,33 +869,39 @@
         <v>37</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>290.166666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>1741</v>
+        <v>48.01</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="2">
-        <v>1508866.6</v>
+        <v>41608.7</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>34</v>
@@ -946,7 +913,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M7" s="2">
         <v>1715</v>
@@ -955,24 +922,30 @@
         <v>37</v>
       </c>
       <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>8.00166666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>48.01</v>
+        <v>1302.6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>29</v>
@@ -981,7 +954,7 @@
         <v>32</v>
       </c>
       <c r="H8" s="2">
-        <v>41608.7</v>
+        <v>455910</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>34</v>
@@ -993,7 +966,7 @@
         <v>36</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M8" s="2">
         <v>1715</v>
@@ -1002,54 +975,13 @@
         <v>37</v>
       </c>
       <c r="O8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1302.6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="2">
-        <v>455910</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1715</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="2">
-        <v>20</v>
+      <c r="P8" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>217.1</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +991,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1069,74 +1001,48 @@
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>173.13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
-        <v>173.13</v>
+        <v>48.61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2">
-        <v>48.61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1147,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1155,90 +1061,67 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1998</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
-        <v>1998</v>
+        <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
+      <c r="G2" s="2">
+        <v>1630000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
-        <v>2362</v>
+        <v>2494</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="2">
-        <v>1630000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2494</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2">
         <v>1000000</v>
       </c>
     </row>
@@ -1249,7 +1132,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1257,78 +1140,58 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2446717</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
-        <v>2446717</v>
+        <v>1937829</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2">
-        <v>1937829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2">
         <v>347674</v>
       </c>
     </row>
@@ -1338,6 +1201,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1">
+        <v>115918</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1347,124 +1243,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
+      <c r="E1" s="1">
+        <v>1750000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2">
-        <v>115918</v>
+        <v>1300000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1750000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>101</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1300000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市土城區永和段05570000地號</t>
+  </si>
+  <si>
     <t>新北市土城區永和段05580000地號</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
     <t>盧嘉辰</t>
   </si>
   <si>
+    <t>70年06月10日</t>
+  </si>
+  <si>
     <t>73年06月15日</t>
   </si>
   <si>
@@ -138,10 +144,10 @@
     <t>新北市上城區永和段00006029建號</t>
   </si>
   <si>
+    <t>新北市土城區永和段00006030建號</t>
+  </si>
+  <si>
     <t>73年10月23日</t>
-  </si>
-  <si>
-    <t>新北市土城區永和段00006030建號</t>
   </si>
   <si>
     <t>73年10月23U</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,372 +621,425 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>57</v>
+        <v>172.61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2">
         <v>1715</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>57</v>
+        <v>172.61</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>10.49</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1107.3</v>
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2">
         <v>1715</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
-        <v>0.0277777777777778</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.291388888888889</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>4626.05</v>
+        <v>10.49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2">
-        <v>681057.36</v>
+        <v>1107.3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2">
         <v>1715</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>0.0277777777777778</v>
       </c>
       <c r="Q4" s="2">
-        <v>128.501388888889</v>
+        <v>0.291388888888889</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>5700.48</v>
+        <v>4626.05</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2">
-        <v>1678474.6</v>
+        <v>681057.36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" s="2">
         <v>1715</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0555555555555556</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Q5" s="2">
-        <v>316.693333333333</v>
+        <v>128.501388888889</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1741</v>
+        <v>5700.48</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2">
-        <v>1508866.6</v>
+        <v>1678474.6</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" s="2">
         <v>1715</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
-        <v>0.166666666666667</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Q6" s="2">
-        <v>290.166666666667</v>
+        <v>316.693333333333</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>48.01</v>
+        <v>1741</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2">
-        <v>41608.7</v>
+        <v>1508866.6</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" s="2">
         <v>1715</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
         <v>0.166666666666667</v>
       </c>
       <c r="Q7" s="2">
-        <v>8.00166666666667</v>
+        <v>290.166666666667</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1302.6</v>
+        <v>48.01</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2">
-        <v>455910</v>
+        <v>41608.7</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" s="2">
         <v>1715</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
         <v>0.166666666666667</v>
       </c>
       <c r="Q8" s="2">
+        <v>8.00166666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1302.6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2">
+        <v>455910</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q9" s="2">
         <v>217.1</v>
       </c>
     </row>
@@ -991,59 +1050,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1">
-        <v>173.13</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="2">
+        <v>173.13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>173.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
         <v>48.61</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1715</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>48.61</v>
       </c>
     </row>
   </sheetData>
@@ -1052,6 +1218,254 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1630000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2494</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2446717</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2446717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1937829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2">
+        <v>347674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1">
+        <v>115918</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2">
+        <v>115918</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1061,227 +1475,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1998</v>
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1750000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2362</v>
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1750000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1630000</v>
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2494</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2446717</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>53</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1937829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2">
-        <v>347674</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1">
-        <v>115918</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1750000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>1300000</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>59</v>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>73年10月23U</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>自用小客車</t>
@@ -1219,38 +1222,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1259,7 +1283,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>33</v>
@@ -1267,13 +1291,34 @@
       <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1715</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
@@ -1282,7 +1327,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
@@ -1290,13 +1335,34 @@
       <c r="G3" s="2">
         <v>1630000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1715</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <v>2494</v>
@@ -1305,13 +1371,34 @@
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="2">
         <v>1000000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1715</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1329,16 +1416,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1">
         <v>2446717</v>
@@ -1349,16 +1436,16 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2">
         <v>2446717</v>
@@ -1369,13 +1456,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1389,13 +1476,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1419,22 +1506,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1">
         <v>115918</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1442,22 +1529,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
         <v>115918</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1478,19 +1565,19 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1">
         <v>1750000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1501,19 +1588,19 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2">
         <v>1750000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1521,22 +1608,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2">
         <v>1300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -153,6 +153,9 @@
     <t>73年10月23U</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
   </si>
   <si>
     <t>101年02月13曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>第一商業銀行土城分行</t>
@@ -1135,7 +1141,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>
@@ -1188,7 +1194,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>37</v>
@@ -1233,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1274,7 +1280,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1283,7 +1289,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>33</v>
@@ -1292,7 +1298,7 @@
         <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -1318,7 +1324,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
@@ -1327,7 +1333,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
@@ -1336,7 +1342,7 @@
         <v>1630000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
@@ -1362,7 +1368,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>2494</v>
@@ -1371,7 +1377,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>33</v>
@@ -1380,7 +1386,7 @@
         <v>1000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>37</v>
@@ -1416,16 +1422,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1">
         <v>2446717</v>
@@ -1436,16 +1442,16 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2">
         <v>2446717</v>
@@ -1456,13 +1462,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1476,13 +1482,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1506,22 +1512,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1">
         <v>115918</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1529,22 +1535,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2">
         <v>115918</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1565,19 +1571,19 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1">
         <v>1750000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1588,19 +1594,19 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>1750000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1608,22 +1614,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2">
         <v>1300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -174,9 +174,24 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>第一商業銀行土城分行</t>
   </si>
   <si>
+    <t>上城農會土城分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
@@ -186,10 +201,7 @@
     <t>吳麗香</t>
   </si>
   <si>
-    <t>上城農會土城分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>抵押借款</t>
@@ -1414,13 +1426,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1431,33 +1443,75 @@
         <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2446717</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2">
         <v>2446717</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1715</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>53</v>
       </c>
@@ -1465,10 +1519,10 @@
         <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1476,8 +1530,29 @@
       <c r="F3" s="2">
         <v>1937829</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1715</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>54</v>
       </c>
@@ -1485,16 +1560,37 @@
         <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="2">
         <v>347674</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1715</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1512,22 +1608,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1">
         <v>115918</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1535,22 +1631,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>115918</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1571,19 +1667,19 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1">
         <v>1750000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1594,19 +1690,19 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>1750000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1614,22 +1710,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2">
         <v>1300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
+++ b/legislator/property/output/normal/盧嘉辰_2012-04-12_財產申報表_tmp79201.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -204,6 +204,12 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押借款</t>
   </si>
   <si>
@@ -216,6 +222,15 @@
     <t>公司週轉</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>美城有限公司</t>
   </si>
   <si>
@@ -226,6 +241,9 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -1600,53 +1618,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1">
-        <v>115918</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>115918</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1715</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1656,33 +1716,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1750000</v>
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -1690,22 +1771,43 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2">
         <v>1750000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>73</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1715</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -1713,19 +1815,40 @@
         <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2">
         <v>1300000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1715</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
